--- a/trunk/SimmulacionAlfombre/enunciado.xlsx
+++ b/trunk/SimmulacionAlfombre/enunciado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="71">
   <si>
     <t xml:space="preserve">Personas llegan para deslizarse por una alfombra mágica cada 3’±5” (uniforme). Cada 45’ se </t>
   </si>
@@ -96,18 +96,9 @@
     <t>15min o 900 seg</t>
   </si>
   <si>
-    <t>segLlegada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TiempoEnCola </t>
-  </si>
-  <si>
     <t>maxTiempoCola</t>
   </si>
   <si>
-    <t>SUM tiempoCola</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reloj </t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>LLegaPers</t>
   </si>
   <si>
-    <t>finLanzam</t>
-  </si>
-  <si>
     <t>Objeto ALFOMBRA</t>
   </si>
   <si>
@@ -157,6 +145,90 @@
   </si>
   <si>
     <t>ColaMax</t>
+  </si>
+  <si>
+    <t>alf supendida y hay personas lanzando</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>cambia</t>
+  </si>
+  <si>
+    <t>alf supen y no hay pers lanza</t>
+  </si>
+  <si>
+    <t>NropersFinLanza</t>
+  </si>
+  <si>
+    <t>alf disp y hay cola lanzando</t>
+  </si>
+  <si>
+    <t>alf disp y no hay cola lanzando</t>
+  </si>
+  <si>
+    <t>mas 1</t>
+  </si>
+  <si>
+    <t>tiempo llega</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>fin lanza</t>
+  </si>
+  <si>
+    <t>tiempo espera</t>
+  </si>
+  <si>
+    <t>Cambia</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>en espera</t>
+  </si>
+  <si>
+    <t>en lanzamiento</t>
+  </si>
+  <si>
+    <t>finalizo</t>
+  </si>
+  <si>
+    <t>menos 1</t>
+  </si>
+  <si>
+    <t>alf suspe y cola lanza =0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambia en todos los q esperan </t>
+  </si>
+  <si>
+    <t>es igual para todos los q esperaban</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>cambia el ultimo q ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cola suma todos los q esperan </t>
+  </si>
+  <si>
+    <t>calcular</t>
+  </si>
+  <si>
+    <t>"espera" pasan a "lanza"</t>
+  </si>
+  <si>
+    <t>al f disponible y cola lanzados=0</t>
+  </si>
+  <si>
+    <t>al f disponible y cola lanzados&gt;0</t>
   </si>
 </sst>
 </file>
@@ -189,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +309,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,28 +702,28 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I158"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4289,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S4"/>
+  <dimension ref="A3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,70 +4393,586 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="6" style="6" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="S3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L4">
-        <v>14400</v>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
